--- a/tkinter_/student_manage/templates/数学成绩排名模板502.xlsx
+++ b/tkinter_/student_manage/templates/数学成绩排名模板502.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20750" windowHeight="11610"/>
+    <workbookView windowHeight="18795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,19 +37,19 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>第一单元排名</t>
-  </si>
-  <si>
-    <t>第二单元排名</t>
-  </si>
-  <si>
-    <t>第三单元排名</t>
-  </si>
-  <si>
-    <t>第四单元排名</t>
-  </si>
-  <si>
-    <t>第五单元排名</t>
+    <t>一单元</t>
+  </si>
+  <si>
+    <t>二单元</t>
+  </si>
+  <si>
+    <t>三单元</t>
+  </si>
+  <si>
+    <t>四单元</t>
+  </si>
+  <si>
+    <t>五单元</t>
   </si>
   <si>
     <t>安晟轩</t>
@@ -1173,12 +1173,12 @@
   <dimension ref="A2:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
-    <row r="2" ht="15" spans="1:7">
+    <row r="2" ht="14.25" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:7">
+    <row r="3" ht="14.25" spans="1:7">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:7">
+    <row r="4" ht="14.25" spans="1:7">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:7">
+    <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="1:7">
+    <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="1:7">
+    <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="1:7">
+    <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:7">
+    <row r="9" ht="14.25" spans="1:7">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="1:7">
+    <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:7">
+    <row r="11" ht="14.25" spans="1:7">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="1:7">
+    <row r="12" ht="14.25" spans="1:7">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:7">
+    <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:7">
+    <row r="14" ht="14.25" spans="1:7">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:7">
+    <row r="15" ht="14.25" spans="1:7">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="1:7">
+    <row r="16" ht="14.25" spans="1:7">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:7">
+    <row r="17" ht="14.25" spans="1:7">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="1:7">
+    <row r="18" ht="14.25" spans="1:7">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="1:7">
+    <row r="19" ht="14.25" spans="1:7">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="1:7">
+    <row r="20" ht="14.25" spans="1:7">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:7">
+    <row r="21" ht="14.25" spans="1:7">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="1:7">
+    <row r="22" ht="14.25" spans="1:7">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:7">
+    <row r="23" ht="14.25" spans="1:7">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" ht="15" spans="1:7">
+    <row r="24" ht="14.25" spans="1:7">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:7">
+    <row r="25" ht="14.25" spans="1:7">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:7">
+    <row r="26" ht="14.25" spans="1:7">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" ht="15" spans="1:7">
+    <row r="27" ht="14.25" spans="1:7">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:7">
+    <row r="28" ht="14.25" spans="1:7">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="1:7">
+    <row r="29" ht="14.25" spans="1:7">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:7">
+    <row r="30" ht="14.25" spans="1:7">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:7">
+    <row r="31" ht="14.25" spans="1:7">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" ht="15" spans="1:7">
+    <row r="32" ht="14.25" spans="1:7">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="1:7">
+    <row r="33" ht="14.25" spans="1:7">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:7">
+    <row r="34" ht="14.25" spans="1:7">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="1:7">
+    <row r="35" ht="14.25" spans="1:7">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" ht="15" spans="1:7">
+    <row r="36" ht="14.25" spans="1:7">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="1:7">
+    <row r="37" ht="14.25" spans="1:7">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="1:7">
+    <row r="38" ht="14.25" spans="1:7">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" ht="15" spans="1:7">
+    <row r="39" ht="14.25" spans="1:7">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="1:7">
+    <row r="40" ht="14.25" spans="1:7">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="1:7">
+    <row r="41" ht="14.25" spans="1:7">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="1:7">
+    <row r="42" ht="14.25" spans="1:7">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" ht="30" spans="1:7">
+    <row r="43" ht="14.25" spans="1:7">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" ht="15" spans="1:7">
+    <row r="44" ht="14.25" spans="1:7">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" ht="15" spans="1:7">
+    <row r="45" ht="14.25" spans="1:7">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="1:7">
+    <row r="46" ht="14.25" spans="1:7">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" ht="15" spans="1:7">
+    <row r="47" ht="14.25" spans="1:7">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="1:7">
+    <row r="48" ht="14.25" spans="1:7">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -2273,7 +2273,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2290,7 +2290,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/tkinter_/student_manage/templates/数学成绩排名模板502.xlsx
+++ b/tkinter_/student_manage/templates/数学成绩排名模板502.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18795"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="单一" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>学号</t>
   </si>
@@ -37,10 +37,28 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>一单元</t>
-  </si>
-  <si>
-    <t>二单元</t>
+    <t>单一</t>
+  </si>
+  <si>
+    <t>单二</t>
+  </si>
+  <si>
+    <t>单三</t>
+  </si>
+  <si>
+    <t>单四</t>
+  </si>
+  <si>
+    <t>单五</t>
+  </si>
+  <si>
+    <t>单六</t>
+  </si>
+  <si>
+    <t>单七</t>
+  </si>
+  <si>
+    <t>单八</t>
   </si>
   <si>
     <t>曹浩天</t>
@@ -696,153 +714,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1168,487 +1186,781 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D48"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="N8" sqref="N8:N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="1" ht="18" customHeight="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:10">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:10">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:4">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:10">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:4">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:10">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:4">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:10">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:4">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:10">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:4">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:10">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:4">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:10">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:4">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:10">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:4">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:10">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:4">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:10">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:4">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:10">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:4">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="1:10">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:4">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:10">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:4">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:10">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:4">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:10">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:4">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:10">
       <c r="A18" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:4">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:10">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:4">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="1:10">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:4">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:10">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:4">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:10">
       <c r="A22" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:4">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:10">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-    </row>
-    <row r="24" ht="14.25" spans="1:4">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:10">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:4">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:10">
       <c r="A25" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:4">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="1:10">
       <c r="A26" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:4">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:10">
       <c r="A27" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:4">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="1:10">
       <c r="A28" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:4">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="1:10">
       <c r="A29" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-    </row>
-    <row r="30" ht="14.25" spans="1:4">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" ht="15" customHeight="1" spans="1:10">
       <c r="A30" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-    </row>
-    <row r="31" ht="14.25" spans="1:4">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" ht="15" customHeight="1" spans="1:10">
       <c r="A31" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-    </row>
-    <row r="32" ht="14.25" spans="1:4">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" ht="15" customHeight="1" spans="1:10">
       <c r="A32" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-    </row>
-    <row r="33" ht="14.25" spans="1:4">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" ht="15" customHeight="1" spans="1:10">
       <c r="A33" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:4">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" ht="15" customHeight="1" spans="1:10">
       <c r="A34" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:4">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" ht="15" customHeight="1" spans="1:10">
       <c r="A35" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:4">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" ht="15" customHeight="1" spans="1:10">
       <c r="A36" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:4">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" ht="15" customHeight="1" spans="1:10">
       <c r="A37" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-    </row>
-    <row r="38" ht="14.25" spans="1:4">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" ht="15" customHeight="1" spans="1:10">
       <c r="A38" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-    </row>
-    <row r="39" ht="14.25" spans="1:4">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" ht="15" customHeight="1" spans="1:10">
       <c r="A39" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:4">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" ht="15" customHeight="1" spans="1:10">
       <c r="A40" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-    </row>
-    <row r="41" ht="14.25" spans="1:4">
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" ht="15" customHeight="1" spans="1:10">
       <c r="A41" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-    </row>
-    <row r="42" ht="14.25" spans="1:4">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" ht="15" customHeight="1" spans="1:10">
       <c r="A42" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-    </row>
-    <row r="43" ht="14.25" spans="1:4">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" ht="15" customHeight="1" spans="1:10">
       <c r="A43" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-    </row>
-    <row r="44" ht="14.25" spans="1:4">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" ht="15" customHeight="1" spans="1:10">
       <c r="A44" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-    </row>
-    <row r="45" ht="14.25" spans="1:4">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" ht="15" customHeight="1" spans="1:10">
       <c r="A45" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-    </row>
-    <row r="46" ht="14.25" spans="1:4">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" ht="15" customHeight="1" spans="1:10">
       <c r="A46" s="2">
-        <v>44</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-    </row>
-    <row r="47" ht="14.25" spans="1:4">
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" ht="15" customHeight="1" spans="1:10">
       <c r="A47" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-    </row>
-    <row r="48" ht="14.25" spans="1:4">
-      <c r="A48" s="2">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
